--- a/蓝牙协议拟制.xlsx
+++ b/蓝牙协议拟制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32115" windowHeight="4665"/>
+    <workbookView windowHeight="17745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -296,6 +296,76 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -318,86 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,7 +411,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,73 +452,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,109 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,36 +728,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -778,17 +752,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,6 +768,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,11 +811,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,133 +845,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32" customHeight="1"/>
@@ -1511,7 +1511,7 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -1635,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -1769,7 +1769,7 @@
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
         <v>36</v>
@@ -1901,7 +1901,7 @@
         <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
         <v>36</v>

--- a/蓝牙协议拟制.xlsx
+++ b/蓝牙协议拟制.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
   <si>
     <t>读取数据</t>
   </si>
@@ -66,6 +66,9 @@
     <t>回复</t>
   </si>
   <si>
+    <t>设备编号</t>
+  </si>
+  <si>
     <t>设备类型</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>温度</t>
   </si>
   <si>
+    <t>5Bit</t>
+  </si>
+  <si>
     <t>2Bit(一位小数)(乘通道数量)</t>
   </si>
   <si>
@@ -129,7 +135,7 @@
     <t>1bit</t>
   </si>
   <si>
-    <t>2bit（2位小数）</t>
+    <t>3bit（4位小数）</t>
   </si>
   <si>
     <t>数量由传感器类型决定</t>
@@ -256,8 +262,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -282,6 +288,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -290,6 +311,66 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,33 +393,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,17 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,50 +424,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -425,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,37 +452,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,145 +620,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,8 +743,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,11 +781,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,31 +792,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,10 +845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,137 +857,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,14 +1000,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,7 +1015,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,21 +1393,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="26.7666666666667" customWidth="1"/>
-    <col min="9" max="9" width="26.625" customWidth="1"/>
-    <col min="10" max="10" width="25.625" customWidth="1"/>
-    <col min="11" max="11" width="25.5" customWidth="1"/>
-    <col min="12" max="16384" width="22.125" customWidth="1"/>
+    <col min="2" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="26.7666666666667" customWidth="1"/>
+    <col min="10" max="10" width="26.625" customWidth="1"/>
+    <col min="11" max="11" width="25.625" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="13" max="16384" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
@@ -1449,7 +1464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:11">
+    <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1465,7 +1480,7 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
@@ -1481,10 +1496,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:11">
+    <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>9</v>
@@ -1498,35 +1516,38 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="8:10">
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="10"/>
+    <row r="7" customHeight="1" spans="9:11">
+      <c r="I7" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -1555,19 +1576,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1583,11 +1604,11 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>28</v>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -1602,10 +1623,13 @@
         <v>20</v>
       </c>
       <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:12">
+    <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>9</v>
@@ -1617,10 +1641,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1629,34 +1653,37 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="9:9">
-      <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:11">
+    <row r="13" customHeight="1" spans="10:10">
+      <c r="J13" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:12">
       <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" t="s">
@@ -1698,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1707,7 +1734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:12">
+    <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1723,29 +1750,32 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:12">
+    <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>9</v>
@@ -1757,39 +1787,42 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" t="s">
-        <v>21</v>
-      </c>
       <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
         <v>13</v>
       </c>
-      <c r="J19" t="s">
-        <v>36</v>
-      </c>
       <c r="K19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:11">
+    <row r="20" customHeight="1" spans="1:12">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:11">
+        <v>26</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1805,35 +1838,35 @@
       <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:13">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1849,32 +1882,35 @@
       <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="F23" t="s">
-        <v>28</v>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:13">
+    <row r="24" customHeight="1" spans="1:14">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>9</v>
@@ -1886,49 +1922,52 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
         <v>14</v>
       </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
       <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
         <v>13</v>
       </c>
-      <c r="K24" t="s">
-        <v>36</v>
-      </c>
       <c r="L24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="7:12">
-      <c r="G25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="5"/>
+    <row r="25" customHeight="1" spans="8:13">
+      <c r="H25" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1944,23 +1983,26 @@
       <c r="E27" t="s">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:10">
+    <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>9</v>
@@ -1972,27 +2014,30 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>14</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>13</v>
       </c>
-      <c r="I28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="J28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="8:8">
-      <c r="H29" s="6" t="s">
-        <v>38</v>
+    <row r="29" customHeight="1" spans="9:9">
+      <c r="I29" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
@@ -2012,13 +2057,13 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:9">
+    <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>9</v>
@@ -2030,7 +2075,7 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -2038,36 +2083,36 @@
       <c r="G31" t="s">
         <v>14</v>
       </c>
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="9:11">
-      <c r="I32" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="10:12">
       <c r="J32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:11">
+      <c r="K32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:12">
       <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="13">
+        <v>51</v>
+      </c>
+      <c r="J33" s="14">
         <v>1</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="K33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:11">
+      <c r="L33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2089,17 +2134,17 @@
       <c r="G34" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="13">
+      <c r="J34" s="14">
         <v>2</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:11">
+      <c r="K34" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>9</v>
@@ -2111,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -2119,17 +2164,17 @@
       <c r="G35" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="13">
+      <c r="J35" s="14">
         <v>3</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="K35" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -2146,22 +2191,22 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="13">
+      <c r="J36" s="14">
         <v>4</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="K36" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:12">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>9</v>
@@ -2173,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -2181,103 +2226,103 @@
       <c r="G37" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="13">
+      <c r="J37" s="14">
         <v>5</v>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="K37" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="9:11">
-      <c r="I38" s="13">
+        <v>60</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="10:12">
+      <c r="J38" s="14">
         <v>6</v>
       </c>
-      <c r="J38" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="K38" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:11">
-      <c r="A39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="L38" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="8" t="s">
+    </row>
+    <row r="39" customHeight="1" spans="1:12">
+      <c r="A39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
+      <c r="D39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="17"/>
       <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="D40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>70</v>
+      <c r="A41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>72</v>
+      <c r="A42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>74</v>
+      <c r="A43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>76</v>
+      <c r="A44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="H25:M25"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>

--- a/蓝牙协议拟制.xlsx
+++ b/蓝牙协议拟制.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
   <si>
     <t>读取数据</t>
+  </si>
+  <si>
+    <t>蓝色部分待修改</t>
   </si>
   <si>
     <t>单个传感器</t>
@@ -262,8 +265,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -288,103 +291,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -400,8 +312,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,13 +411,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -464,187 +467,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,8 +746,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,35 +776,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +798,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,17 +826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,8 +1398,8 @@
   <sheetPr/>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32" customHeight="1"/>
@@ -1410,275 +1413,278 @@
     <col min="13" max="16384" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="9:11">
       <c r="I7" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="10:10">
       <c r="J13" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:12">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1687,162 +1693,162 @@
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:12">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1851,110 +1857,110 @@
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:14">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
         <v>14</v>
       </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>13</v>
-      </c>
       <c r="L24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:13">
       <c r="H25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1964,276 +1970,276 @@
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
         <v>14</v>
       </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
       <c r="J28" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="9:9">
       <c r="I29" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="10:12">
       <c r="J32" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:12">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J33" s="14">
         <v>1</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J34" s="14">
         <v>2</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J35" s="14">
         <v>3</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J36" s="14">
         <v>4</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:12">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J37" s="14">
         <v>5</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="10:12">
@@ -2241,24 +2247,24 @@
         <v>6</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:12">
       <c r="A39" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
@@ -2266,48 +2272,48 @@
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">

--- a/蓝牙协议拟制.xlsx
+++ b/蓝牙协议拟制.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
   <si>
     <t>读取数据</t>
   </si>
@@ -24,6 +24,9 @@
     <t>蓝色部分待修改</t>
   </si>
   <si>
+    <t>注：已完成</t>
+  </si>
+  <si>
     <t>单个传感器</t>
   </si>
   <si>
@@ -93,7 +96,7 @@
     <t>2Bit(一位小数)(乘通道数量)</t>
   </si>
   <si>
-    <t>3Bit(2位小数)</t>
+    <t>4Bit(float)</t>
   </si>
   <si>
     <t>乘以通道数量</t>
@@ -263,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -290,6 +293,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -297,6 +315,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -312,16 +338,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,21 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -381,17 +399,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,6 +415,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -411,28 +430,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -467,13 +470,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,157 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,10 +746,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -756,7 +776,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,20 +813,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,17 +835,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,133 +863,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1402,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32" customHeight="1"/>
@@ -1413,278 +1416,281 @@
     <col min="13" max="16384" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="9:11">
       <c r="I7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="10:10">
       <c r="J13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:12">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1693,162 +1699,162 @@
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:12">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1857,110 +1863,110 @@
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:14">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
         <v>15</v>
       </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="8:13">
       <c r="H25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1970,276 +1976,276 @@
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
         <v>15</v>
       </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
       <c r="J28" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="9:9">
       <c r="I29" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="10:12">
       <c r="J32" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:12">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33" s="14">
         <v>1</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J34" s="14">
         <v>2</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J35" s="14">
         <v>3</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J36" s="14">
         <v>4</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:12">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J37" s="14">
         <v>5</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="10:12">
@@ -2247,24 +2253,24 @@
         <v>6</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:12">
       <c r="A39" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
@@ -2272,48 +2278,48 @@
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">

--- a/蓝牙协议拟制.xlsx
+++ b/蓝牙协议拟制.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="82">
   <si>
     <t>读取数据</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>温度</t>
+  </si>
+  <si>
+    <t>频率/设备状态</t>
   </si>
   <si>
     <t>5Bit</t>
@@ -266,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -293,14 +296,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -315,16 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,8 +333,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,29 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -399,39 +433,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,13 +461,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,181 +545,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,27 +750,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,6 +788,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -813,33 +838,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,137 +866,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,10 +1009,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,13 +1027,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1402,7 +1408,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32" customHeight="1"/>
@@ -1420,7 +1426,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
@@ -1476,7 +1482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:12">
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1511,10 +1517,13 @@
         <v>23</v>
       </c>
       <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:12">
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>11</v>
@@ -1529,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -1538,28 +1547,31 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="9:11">
-      <c r="I7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -1588,19 +1600,19 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>18</v>
@@ -1638,10 +1650,13 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:13">
+    <row r="12" customHeight="1" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>11</v>
@@ -1653,13 +1668,13 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1668,34 +1683,38 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
       </c>
       <c r="M12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="10:10">
-      <c r="J13" s="9" t="s">
-        <v>27</v>
+      <c r="J13" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:12">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" t="s">
@@ -1737,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1769,19 +1788,19 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
         <v>10</v>
@@ -1799,10 +1818,10 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -1811,16 +1830,16 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
         <v>16</v>
@@ -1828,10 +1847,10 @@
     </row>
     <row r="20" customHeight="1" spans="1:12">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:12">
@@ -1853,12 +1872,12 @@
       <c r="G21" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="1"/>
@@ -1866,16 +1885,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:14">
@@ -1895,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>18</v>
@@ -1904,19 +1923,19 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N23" t="s">
         <v>10</v>
@@ -1934,13 +1953,13 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -1949,34 +1968,35 @@
         <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="8:13">
-      <c r="H25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+    <row r="25" customHeight="1" spans="7:13">
+      <c r="G25" s="5"/>
+      <c r="H25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -2002,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
@@ -2026,10 +2046,10 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
@@ -2041,15 +2061,15 @@
         <v>15</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="9:9">
-      <c r="I29" s="11" t="s">
-        <v>42</v>
+      <c r="I29" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
@@ -2069,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -2087,7 +2107,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -2096,32 +2116,32 @@
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="10:12">
-      <c r="J32" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="13" t="s">
+      <c r="J32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="K32" s="14" t="s">
         <v>52</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:12">
       <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="14">
+        <v>54</v>
+      </c>
+      <c r="J33" s="15">
         <v>1</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="15" t="s">
-        <v>54</v>
+      <c r="L33" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:12">
@@ -2146,14 +2166,14 @@
       <c r="G34" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="15">
         <v>2</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="15" t="s">
+      <c r="K34" s="16" t="s">
         <v>56</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:12">
@@ -2168,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
@@ -2176,14 +2196,14 @@
       <c r="G35" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="15">
         <v>3</v>
       </c>
-      <c r="K35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="16" t="s">
+      <c r="K35" s="16" t="s">
         <v>59</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:12">
@@ -2203,19 +2223,19 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="15">
         <v>4</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L36" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>61</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:12">
@@ -2230,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
@@ -2238,97 +2258,97 @@
       <c r="G37" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="15">
         <v>5</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>56</v>
+      <c r="K37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="10:12">
-      <c r="J38" s="14">
+      <c r="J38" s="15">
         <v>6</v>
       </c>
-      <c r="K38" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L38" s="16" t="s">
+      <c r="K38" s="16" t="s">
         <v>64</v>
       </c>
+      <c r="L38" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="39" customHeight="1" spans="1:12">
-      <c r="A39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
+      <c r="E39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="19"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="E40" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="B41" s="7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="B42" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="B43" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="B44" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/蓝牙协议拟制.xlsx
+++ b/蓝牙协议拟制.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="136">
   <si>
     <t>读取数据</t>
   </si>
   <si>
-    <t>蓝色部分待修改</t>
-  </si>
-  <si>
-    <t>注：已完成</t>
+    <t>最新修改部分</t>
   </si>
   <si>
     <t>单个传感器</t>
@@ -72,12 +69,12 @@
     <t>回复</t>
   </si>
   <si>
-    <t>设备编号</t>
-  </si>
-  <si>
     <t>设备类型</t>
   </si>
   <si>
+    <t>设备型号</t>
+  </si>
+  <si>
     <t>通道数量</t>
   </si>
   <si>
@@ -93,7 +90,7 @@
     <t>频率/设备状态</t>
   </si>
   <si>
-    <t>5Bit</t>
+    <t>4Bit</t>
   </si>
   <si>
     <t>2Bit(一位小数)(乘通道数量)</t>
@@ -141,24 +138,24 @@
     <t>配置参数</t>
   </si>
   <si>
+    <t>8Bit(double)</t>
+  </si>
+  <si>
+    <t>数量由传感器类型决定</t>
+  </si>
+  <si>
+    <t>可能多通道</t>
+  </si>
+  <si>
+    <t>0x61</t>
+  </si>
+  <si>
+    <t>0x5D02</t>
+  </si>
+  <si>
     <t>1bit</t>
   </si>
   <si>
-    <t>3bit（4位小数）</t>
-  </si>
-  <si>
-    <t>数量由传感器类型决定</t>
-  </si>
-  <si>
-    <t>可能多通道</t>
-  </si>
-  <si>
-    <t>0x61</t>
-  </si>
-  <si>
-    <t>0x5D02</t>
-  </si>
-  <si>
     <t>数量由设备数量决定</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
     <t>0x14</t>
   </si>
   <si>
+    <t>传感器类型映射</t>
+  </si>
+  <si>
     <t>0x15</t>
   </si>
   <si>
@@ -262,6 +262,168 @@
   </si>
   <si>
     <t>0xA6</t>
+  </si>
+  <si>
+    <t>传感器型号映射</t>
+  </si>
+  <si>
+    <t>共四字节</t>
+  </si>
+  <si>
+    <t>第一字节空置</t>
+  </si>
+  <si>
+    <t>第二字节生产厂家</t>
+  </si>
+  <si>
+    <t>第三字节传感器类型</t>
+  </si>
+  <si>
+    <t>第四字节 量程/直径</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>金码</t>
+  </si>
+  <si>
+    <t>0.3MPa</t>
+  </si>
+  <si>
+    <t>0.6MPa</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>1MPa</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>2MPa</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>4MPa</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>8MPa</t>
+  </si>
+  <si>
+    <t>￠12</t>
+  </si>
+  <si>
+    <t>￠16</t>
+  </si>
+  <si>
+    <t>￠22</t>
+  </si>
+  <si>
+    <t>￠25</t>
+  </si>
+  <si>
+    <t>￠28</t>
+  </si>
+  <si>
+    <t>￠32</t>
+  </si>
+  <si>
+    <t>￠36</t>
+  </si>
+  <si>
+    <t>3弦200KN</t>
+  </si>
+  <si>
+    <t>3弦500KN</t>
+  </si>
+  <si>
+    <t>3弦800KN</t>
+  </si>
+  <si>
+    <t>3弦1000KN</t>
+  </si>
+  <si>
+    <t>6弦1500KN</t>
+  </si>
+  <si>
+    <t>6弦2000KN</t>
+  </si>
+  <si>
+    <t>6弦3000KN</t>
+  </si>
+  <si>
+    <t>6弦4000KN</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>6弦5000KN</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>6弦6000KN</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>6弦8000KN</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>9弦10000KN</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>服务器配置</t>
+  </si>
+  <si>
+    <t>ip+端口号</t>
+  </si>
+  <si>
+    <t>0x31</t>
+  </si>
+  <si>
+    <t>？Bit</t>
+  </si>
+  <si>
+    <t>0x30</t>
+  </si>
+  <si>
+    <t>ID配置</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>20Bit</t>
+  </si>
+  <si>
+    <t>获取配置信息</t>
+  </si>
+  <si>
+    <t>0xA1C3</t>
+  </si>
+  <si>
+    <t>1Bite</t>
   </si>
 </sst>
 </file>
@@ -311,14 +473,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -333,9 +487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,15 +518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +543,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,8 +579,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,15 +596,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,6 +611,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,7 +635,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +749,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,37 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,128 +819,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -692,6 +854,47 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -749,21 +952,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -773,26 +961,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,11 +996,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,11 +1028,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,170 +1057,170 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,28 +1230,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,16 +1623,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="8" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="3" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="26.7666666666667" customWidth="1"/>
     <col min="10" max="10" width="26.625" customWidth="1"/>
     <col min="11" max="11" width="25.625" customWidth="1"/>
@@ -1422,294 +1641,291 @@
     <col min="13" max="16384" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="9:11">
+      <c r="I7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="9:11">
-      <c r="I7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
+    </row>
+    <row r="13" customHeight="1" spans="10:10">
+      <c r="J13" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="10:10">
-      <c r="J13" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:12">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1718,275 +1934,275 @@
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
       <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:13">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="M19" t="s">
         <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:12">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
+      <c r="F21" t="s">
+        <v>9</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="1"/>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:14">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
         <v>45</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="M24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="N24" t="s">
         <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="7:13">
       <c r="G25" s="5"/>
       <c r="H25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1996,286 +2212,289 @@
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:11">
+      <c r="A28" s="2"/>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="K28" t="s">
         <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="9:9">
       <c r="I29" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
+      <c r="A30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
       <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:10">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
         <v>49</v>
       </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:10">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" t="s">
+    </row>
+    <row r="32" customHeight="1" spans="10:12">
+      <c r="J32" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="10:12">
-      <c r="J32" s="13" t="s">
+      <c r="K32" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="L32" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:12">
       <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="20">
+        <v>1</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="15">
-        <v>1</v>
-      </c>
-      <c r="K33" s="16" t="s">
+    </row>
+    <row r="34" customHeight="1" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="20">
+        <v>2</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:12">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:12">
-      <c r="A34" s="1" t="s">
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="20">
+        <v>3</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:12">
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E36" t="s">
         <v>7</v>
       </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="G34" t="s">
+      <c r="J36" s="20">
+        <v>4</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:12">
+      <c r="A37" s="4"/>
+      <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="15">
-        <v>2</v>
-      </c>
-      <c r="K34" s="16" t="s">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="20">
+        <v>5</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="1"/>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="15">
-        <v>3</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:12">
-      <c r="A36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="38" customHeight="1" spans="1:12">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="20">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="15">
-        <v>4</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:12">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="15">
-        <v>5</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="10:12">
-      <c r="J38" s="15">
-        <v>6</v>
-      </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="22" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2292,9 +2511,9 @@
       <c r="E39" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="7" t="s">
@@ -2343,18 +2562,580 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="6:7">
+      <c r="F48" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="6:7">
+      <c r="F49" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="6:7">
+      <c r="F50" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="6:7">
+      <c r="F51" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="6:7">
+      <c r="F52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="4:7">
+      <c r="D53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="4:7">
+      <c r="D54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="6:7">
+      <c r="F55" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="6:7">
+      <c r="F56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="6:7">
+      <c r="F57" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="6:7">
+      <c r="F58" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="6:7">
+      <c r="F59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="6:7">
+      <c r="F60" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="4:7">
+      <c r="D61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="4:7">
+      <c r="D62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="4:7">
+      <c r="D63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="6:7">
+      <c r="F64" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="6:7">
+      <c r="F65" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="6:7">
+      <c r="F66" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="6:7">
+      <c r="F67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="6:7">
+      <c r="F68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="6:7">
+      <c r="F69" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="6:7">
+      <c r="F70" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="6:7">
+      <c r="F71" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="6:7">
+      <c r="F72" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="6:7">
+      <c r="F73" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="6:7">
+      <c r="F74" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:1">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:7">
+      <c r="A78" s="2"/>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
+      <c r="A79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:7">
+      <c r="A80" s="4"/>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:1">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:7">
+      <c r="A82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:7">
+      <c r="A83" s="2"/>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:7">
+      <c r="A84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:7">
+      <c r="A85" s="4"/>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:1">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
+      <c r="A88" s="2"/>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:8">
+      <c r="A89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:8">
+      <c r="A90" s="4"/>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="24">
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
@@ -2367,6 +3148,12 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/蓝牙协议拟制.xlsx
+++ b/蓝牙协议拟制.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\ISD2190\ISD2190\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83C61EF-7412-420A-8040-AF3288FBF235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17745"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,9 +420,6 @@
     <t>0x32</t>
   </si>
   <si>
-    <t>20Bit</t>
-  </si>
-  <si>
     <t>获取配置信息</t>
   </si>
   <si>
@@ -424,19 +427,17 @@
   </si>
   <si>
     <t>1Bite</t>
+  </si>
+  <si>
+    <t>19Bit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,151 +459,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,194 +505,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -951,386 +637,106 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1617,31 +1023,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="26.7666666666667" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="26.625" customWidth="1"/>
     <col min="11" max="11" width="25.625" customWidth="1"/>
     <col min="12" max="12" width="25.5" customWidth="1"/>
-    <col min="13" max="16384" width="22.125" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1649,19 +1055,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
+    <row r="2" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -1677,8 +1083,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1698,14 +1104,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
@@ -1739,8 +1145,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1778,26 +1184,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="9:11">
-      <c r="I7" s="15" t="s">
+    <row r="7" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
@@ -1810,8 +1216,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1828,14 +1234,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:14">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -1872,8 +1278,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:14">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1914,37 +1320,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="10:10">
-      <c r="J13" s="15" t="s">
+    <row r="13" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:12">
+    <row r="14" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
@@ -1960,8 +1366,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -1981,14 +1387,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
@@ -2022,8 +1428,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -2054,29 +1460,29 @@
       <c r="K19" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="14" t="s">
         <v>40</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:12">
+    <row r="20" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
@@ -2088,15 +1494,15 @@
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="2"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -2113,14 +1519,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
@@ -2157,8 +1563,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -2192,37 +1598,37 @@
       <c r="L24" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="7:13">
-      <c r="G25" s="5"/>
-      <c r="H25" s="6" t="s">
+    <row r="25" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="3"/>
+      <c r="H25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
@@ -2250,8 +1656,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:11">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -2276,26 +1682,26 @@
       <c r="I28" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="9:9">
-      <c r="I29" s="5" t="s">
+    <row r="29" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
@@ -2311,8 +1717,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:10">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="25"/>
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -2335,39 +1741,39 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="10:12">
-      <c r="J32" s="18" t="s">
+    <row r="32" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="17">
         <v>1</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="21" t="s">
+      <c r="L33" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:12">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
@@ -2382,18 +1788,18 @@
       <c r="G34" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="17">
         <v>2</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="24"/>
       <c r="B35" t="s">
         <v>10</v>
       </c>
@@ -2412,24 +1818,24 @@
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="17">
         <v>3</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:12">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
@@ -2444,18 +1850,18 @@
       <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="17">
         <v>4</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:12">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="25"/>
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -2474,394 +1880,394 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="17">
         <v>5</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="L37" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:12">
+    <row r="38" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="17">
         <v>6</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="L38" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:12">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="7" t="s">
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
+    </row>
+    <row r="40" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="10" t="s">
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="6:7">
-      <c r="F48" s="10" t="s">
+    <row r="48" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="6:7">
-      <c r="F49" s="10" t="s">
+    <row r="49" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="6:7">
-      <c r="F50" s="10" t="s">
+    <row r="50" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="6:7">
-      <c r="F51" s="10" t="s">
+    <row r="51" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="6:7">
-      <c r="F52" s="10" t="s">
+    <row r="52" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="4:7">
-      <c r="D53" s="7" t="s">
+    <row r="53" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="4:7">
-      <c r="D54" s="7" t="s">
+    <row r="54" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="6:7">
-      <c r="F55" s="10" t="s">
+    <row r="55" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="6:7">
-      <c r="F56" s="10" t="s">
+    <row r="56" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="6:7">
-      <c r="F57" s="10" t="s">
+    <row r="57" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="6:7">
-      <c r="F58" s="10" t="s">
+    <row r="58" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="6:7">
-      <c r="F59" s="10" t="s">
+    <row r="59" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="6:7">
-      <c r="F60" s="10" t="s">
+    <row r="60" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="4:7">
-      <c r="D61" s="7" t="s">
+    <row r="61" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="4:7">
-      <c r="D62" s="7" t="s">
+    <row r="62" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="14" t="s">
+      <c r="F62" s="10"/>
+      <c r="G62" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="4:7">
-      <c r="D63" s="7" t="s">
+    <row r="63" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="6:7">
-      <c r="F64" s="10" t="s">
+    <row r="64" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="6:7">
-      <c r="F65" s="10" t="s">
+    <row r="65" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="6:7">
-      <c r="F66" s="10" t="s">
+    <row r="66" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="6:7">
-      <c r="F67" s="10" t="s">
+    <row r="67" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="6:7">
-      <c r="F68" s="10" t="s">
+    <row r="68" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="6:7">
-      <c r="F69" s="10" t="s">
+    <row r="69" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="6:7">
-      <c r="F70" s="10" t="s">
+    <row r="70" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="6:7">
-      <c r="F71" s="10" t="s">
+    <row r="71" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="6:7">
-      <c r="F72" s="10" t="s">
+    <row r="72" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="6:7">
-      <c r="F73" s="10" t="s">
+    <row r="73" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="6:7">
-      <c r="F74" s="10" t="s">
+    <row r="74" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:1">
+    <row r="76" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D77" t="s">
@@ -2877,8 +2283,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="2"/>
+    <row r="78" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="24"/>
       <c r="B78" t="s">
         <v>10</v>
       </c>
@@ -2898,14 +2304,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D79" t="s">
@@ -2921,8 +2327,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="4"/>
+    <row r="80" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="25"/>
       <c r="B80" t="s">
         <v>10</v>
       </c>
@@ -2942,19 +2348,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:1">
+    <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D82" t="s">
@@ -2970,8 +2376,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:7">
-      <c r="A83" s="2"/>
+    <row r="83" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="24"/>
       <c r="B83" t="s">
         <v>10</v>
       </c>
@@ -2984,21 +2390,21 @@
       <c r="E83" t="s">
         <v>131</v>
       </c>
-      <c r="F83" t="s">
-        <v>132</v>
+      <c r="F83" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="G83" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D84" t="s">
@@ -3014,8 +2420,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:7">
-      <c r="A85" s="4"/>
+    <row r="85" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="25"/>
       <c r="B85" t="s">
         <v>10</v>
       </c>
@@ -3035,19 +2441,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:1">
+    <row r="86" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:6">
-      <c r="A87" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D87" t="s">
@@ -3060,8 +2466,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:6">
-      <c r="A88" s="2"/>
+    <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="24"/>
       <c r="B88" t="s">
         <v>10</v>
       </c>
@@ -3075,17 +2481,17 @@
         <v>128</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:8">
-      <c r="A89" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D89" t="s">
@@ -3104,13 +2510,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:8">
-      <c r="A90" s="4"/>
+    <row r="90" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="25"/>
       <c r="B90" t="s">
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3118,8 +2524,8 @@
       <c r="E90" t="s">
         <v>128</v>
       </c>
-      <c r="F90" t="s">
-        <v>132</v>
+      <c r="F90" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="G90" t="s">
         <v>127</v>
@@ -3130,67 +2536,61 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="H25:M25"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/蓝牙协议拟制.xlsx
+++ b/蓝牙协议拟制.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\ISD2190\ISD2190\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83C61EF-7412-420A-8040-AF3288FBF235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17745"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="136">
   <si>
     <t>读取数据</t>
   </si>
   <si>
-    <t>蓝色部分待修改</t>
+    <t>最新修改部分</t>
   </si>
   <si>
     <t>单个传感器</t>
@@ -69,12 +75,12 @@
     <t>回复</t>
   </si>
   <si>
-    <t>设备编号</t>
-  </si>
-  <si>
     <t>设备类型</t>
   </si>
   <si>
+    <t>设备型号</t>
+  </si>
+  <si>
     <t>通道数量</t>
   </si>
   <si>
@@ -87,13 +93,16 @@
     <t>温度</t>
   </si>
   <si>
-    <t>5Bit</t>
+    <t>频率/设备状态</t>
+  </si>
+  <si>
+    <t>4Bit</t>
   </si>
   <si>
     <t>2Bit(一位小数)(乘通道数量)</t>
   </si>
   <si>
-    <t>3Bit(2位小数)</t>
+    <t>4Bit(float)</t>
   </si>
   <si>
     <t>乘以通道数量</t>
@@ -135,24 +144,24 @@
     <t>配置参数</t>
   </si>
   <si>
+    <t>8Bit(double)</t>
+  </si>
+  <si>
+    <t>数量由传感器类型决定</t>
+  </si>
+  <si>
+    <t>可能多通道</t>
+  </si>
+  <si>
+    <t>0x61</t>
+  </si>
+  <si>
+    <t>0x5D02</t>
+  </si>
+  <si>
     <t>1bit</t>
   </si>
   <si>
-    <t>3bit（4位小数）</t>
-  </si>
-  <si>
-    <t>数量由传感器类型决定</t>
-  </si>
-  <si>
-    <t>可能多通道</t>
-  </si>
-  <si>
-    <t>0x61</t>
-  </si>
-  <si>
-    <t>0x5D02</t>
-  </si>
-  <si>
     <t>数量由设备数量决定</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
     <t>0x14</t>
   </si>
   <si>
+    <t>传感器类型映射</t>
+  </si>
+  <si>
     <t>0x15</t>
   </si>
   <si>
@@ -256,19 +268,176 @@
   </si>
   <si>
     <t>0xA6</t>
+  </si>
+  <si>
+    <t>传感器型号映射</t>
+  </si>
+  <si>
+    <t>共四字节</t>
+  </si>
+  <si>
+    <t>第一字节空置</t>
+  </si>
+  <si>
+    <t>第二字节生产厂家</t>
+  </si>
+  <si>
+    <t>第三字节传感器类型</t>
+  </si>
+  <si>
+    <t>第四字节 量程/直径</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>金码</t>
+  </si>
+  <si>
+    <t>0.3MPa</t>
+  </si>
+  <si>
+    <t>0.6MPa</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>1MPa</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>2MPa</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>4MPa</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>8MPa</t>
+  </si>
+  <si>
+    <t>￠12</t>
+  </si>
+  <si>
+    <t>￠16</t>
+  </si>
+  <si>
+    <t>￠22</t>
+  </si>
+  <si>
+    <t>￠25</t>
+  </si>
+  <si>
+    <t>￠28</t>
+  </si>
+  <si>
+    <t>￠32</t>
+  </si>
+  <si>
+    <t>￠36</t>
+  </si>
+  <si>
+    <t>3弦200KN</t>
+  </si>
+  <si>
+    <t>3弦500KN</t>
+  </si>
+  <si>
+    <t>3弦800KN</t>
+  </si>
+  <si>
+    <t>3弦1000KN</t>
+  </si>
+  <si>
+    <t>6弦1500KN</t>
+  </si>
+  <si>
+    <t>6弦2000KN</t>
+  </si>
+  <si>
+    <t>6弦3000KN</t>
+  </si>
+  <si>
+    <t>6弦4000KN</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>6弦5000KN</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>6弦6000KN</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>6弦8000KN</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>9弦10000KN</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>服务器配置</t>
+  </si>
+  <si>
+    <t>ip+端口号</t>
+  </si>
+  <si>
+    <t>0x31</t>
+  </si>
+  <si>
+    <t>？Bit</t>
+  </si>
+  <si>
+    <t>0x30</t>
+  </si>
+  <si>
+    <t>ID配置</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>获取配置信息</t>
+  </si>
+  <si>
+    <t>0xA1C3</t>
+  </si>
+  <si>
+    <t>1Bite</t>
+  </si>
+  <si>
+    <t>19Bit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,156 +459,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -455,204 +501,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -686,6 +540,47 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -742,368 +637,106 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1390,44 +1023,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="26.7666666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="26.625" customWidth="1"/>
     <col min="11" max="11" width="25.625" customWidth="1"/>
     <col min="12" max="12" width="25.5" customWidth="1"/>
-    <col min="13" max="16384" width="22.125" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
+    <row r="2" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1449,8 +1083,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1470,8 +1104,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -1486,10 +1120,10 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
@@ -1505,11 +1139,14 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1522,42 +1159,45 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="9:11">
-      <c r="I7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
+    <row r="7" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -1576,26 +1216,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
@@ -1611,12 +1251,12 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
@@ -1632,11 +1272,14 @@
         <v>22</v>
       </c>
       <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1647,57 +1290,61 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="10:10">
-      <c r="J13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:12">
+    <row r="13" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
@@ -1719,8 +1366,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -1740,8 +1387,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1756,33 +1403,33 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -1793,43 +1440,43 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>40</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:12">
+    <row r="20" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
@@ -1844,23 +1491,23 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="1"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1868,12 +1515,12 @@
       <c r="E22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
@@ -1889,35 +1536,35 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1933,48 +1580,49 @@
       <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="8:13">
-      <c r="H25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
+    <row r="25" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="3"/>
+      <c r="H25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
@@ -1989,27 +1637,27 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:11">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
       <c r="B28" t="s">
         <v>10</v>
       </c>
@@ -2020,13 +1668,13 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -2034,20 +1682,20 @@
       <c r="I28" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="9:9">
-      <c r="I29" s="11" t="s">
+    <row r="29" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
@@ -2063,14 +1711,14 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:10">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="25"/>
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -2081,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -2090,36 +1738,36 @@
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="10:12">
-      <c r="J32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="13" t="s">
+    </row>
+    <row r="32" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="K32" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:12">
+      <c r="L32" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="14">
+        <v>53</v>
+      </c>
+      <c r="J33" s="17">
         <v>1</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:12">
-      <c r="A34" s="1" t="s">
+      <c r="L33" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
@@ -2140,18 +1788,18 @@
       <c r="G34" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="17">
         <v>2</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="15" t="s">
+      <c r="K34" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="1"/>
+      <c r="L34" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="24"/>
       <c r="B35" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -2170,18 +1818,18 @@
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="17">
         <v>3</v>
       </c>
-      <c r="K35" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="16" t="s">
+      <c r="K35" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:12">
-      <c r="A36" s="3" t="s">
+      <c r="L35" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B36" t="s">
@@ -2197,23 +1845,23 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="17">
         <v>4</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" s="16" t="s">
+      <c r="K36" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:12">
-      <c r="A37" s="3"/>
+      <c r="L36" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="25"/>
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -2232,152 +1880,717 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="17">
         <v>5</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="10:12">
-      <c r="J38" s="14">
+      <c r="K37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="17">
         <v>6</v>
       </c>
-      <c r="K38" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:12">
-      <c r="A39" s="6" t="s">
+      <c r="K38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="L38" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="7" t="s">
+    </row>
+    <row r="39" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
+    </row>
+    <row r="40" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="6" t="s">
+    <row r="41" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="6" t="s">
+    <row r="42" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="6" t="s">
+    <row r="43" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+    <row r="44" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="24"/>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="25"/>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="24"/>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="25"/>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="24"/>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="25"/>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G90" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="H25:M25"/>
+  <mergeCells count="24">
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>